--- a/biology/Botanique/Salix_koreensis/Salix_koreensis.xlsx
+++ b/biology/Botanique/Salix_koreensis/Salix_koreensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix koreensis, le Saule de Corée, est une espèce de saules, native de Corée, de Chine et du Japon.
 </t>
@@ -511,15 +523,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix dolichostyla Seemen[1] ;
-Salix pierotii Miq.[2].
-Variétés
-Salix koreensis var. brevistyla Y. L. Chou &amp; Skvortzov ;
-Salix koreensis var. koreensis ;
-Salix koreensis var. pedunculata Y. L. Chou ;
-Salix koreensis var. shandongensis C. F. Fang.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix dolichostyla Seemen ;
+Salix pierotii Miq..</t>
         </is>
       </c>
     </row>
@@ -544,10 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Salix koreensis var. brevistyla Y. L. Chou &amp; Skvortzov ;
+Salix koreensis var. koreensis ;
+Salix koreensis var. pedunculata Y. L. Chou ;
+Salix koreensis var. shandongensis C. F. Fang.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salix_koreensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Salix_koreensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix koreensis est un arbre atteignant jusqu'à 20 m de haut, avec une écorce gris sombre, crevassée. Sa couronne est ovale. Les jeunes branches sont brun grisâtre ou brun vert, pubescentes puis glabres. Les bourgeons sont ovales, de 2 à 5 mm de long. Les stipules sont oblique-ovale ou ovale-lancéolé, avec une marge dentée. Le pétiole mesure de 6 à 13 mm, les feuilles sont de lancéolées à ovole-lancéolé ou oblong-lancéolé, de dimensions 6-9(-13) × 1-1.8 cm. Elles sont abaxiales, glauques, pubescentes le long de la nervure centrale ou cotonneuses et soyeuses, devenant glabres. Le chaton mâle est subsessile ou longuement pédonculé, avec de 2 à 5 bractées vert jaunâtre, ovale oblong, les deux faces pileuses et le sommet pointu. La fleur mâle porte deux étamines aux anthères rouges. La fleur femelle est d'ellipsoïde à courtement cylindrique, mesure de 1 à 2 cm. Son pédoncule porte de 3 à 5 folioles, avec des bractées verdâtres ovale oblong ou ovale, les deux faces sont pileuses. La floraison a lieu en mars et la fructification est mature en juin.
 L'espèce prospère le long des rivières, les flancs de montagnes humides ou les zones cultivées, du niveau de la mer à 700 m d'altitude. Elle se rencontre dans le Gansu, Hebei, Heilongjiang, Jilin, Liaoning, Nei Mongol, Shaanxi, Shandong  (Japon, Corée, Russie (Extrême-Orient)).
